--- a/public/data/lime/lime_table_south_africa.xlsx
+++ b/public/data/lime/lime_table_south_africa.xlsx
@@ -1363,13 +1363,13 @@
         <v>88</v>
       </c>
       <c r="D2" t="n">
-        <v>2.04</v>
+        <v>1.58</v>
       </c>
       <c r="E2" t="n">
-        <v>1.16</v>
+        <v>0.37</v>
       </c>
       <c r="F2" t="n">
-        <v>0.36</v>
+        <v>0.02</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -1381,16 +1381,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>1.58</v>
+        <v>0.87</v>
       </c>
       <c r="K2" t="n">
-        <v>0.35</v>
+        <v>0.05</v>
       </c>
       <c r="L2" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -1410,16 +1410,16 @@
         <v>89</v>
       </c>
       <c r="D3" t="n">
-        <v>2.93</v>
+        <v>2.05</v>
       </c>
       <c r="E3" t="n">
-        <v>1.55</v>
+        <v>0.43</v>
       </c>
       <c r="F3" t="n">
-        <v>0.47</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -1428,16 +1428,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>2.01</v>
+        <v>1.1</v>
       </c>
       <c r="K3" t="n">
-        <v>0.65</v>
+        <v>0.08</v>
       </c>
       <c r="L3" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -1457,13 +1457,13 @@
         <v>90</v>
       </c>
       <c r="D4" t="n">
-        <v>3.88</v>
+        <v>3.12</v>
       </c>
       <c r="E4" t="n">
-        <v>2.38</v>
+        <v>0.77</v>
       </c>
       <c r="F4" t="n">
-        <v>0.66</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -1475,16 +1475,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>2.45</v>
+        <v>1.58</v>
       </c>
       <c r="K4" t="n">
-        <v>1.2</v>
+        <v>0.19</v>
       </c>
       <c r="L4" t="n">
-        <v>0.29</v>
+        <v>0.01</v>
       </c>
       <c r="M4" t="n">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -1504,16 +1504,16 @@
         <v>91</v>
       </c>
       <c r="D5" t="n">
-        <v>3.96</v>
+        <v>3.27</v>
       </c>
       <c r="E5" t="n">
-        <v>2.87</v>
+        <v>1.64</v>
       </c>
       <c r="F5" t="n">
-        <v>1.81</v>
+        <v>0.56</v>
       </c>
       <c r="G5" t="n">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -1522,16 +1522,16 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>2.07</v>
+        <v>1.09</v>
       </c>
       <c r="K5" t="n">
-        <v>0.59</v>
+        <v>0.07</v>
       </c>
       <c r="L5" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -1551,13 +1551,13 @@
         <v>92</v>
       </c>
       <c r="D6" t="n">
-        <v>2.68</v>
+        <v>2.19</v>
       </c>
       <c r="E6" t="n">
-        <v>1.76</v>
+        <v>0.86</v>
       </c>
       <c r="F6" t="n">
-        <v>0.86</v>
+        <v>0.06</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1569,16 +1569,16 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>1.56</v>
+        <v>0.83</v>
       </c>
       <c r="K6" t="n">
-        <v>0.45</v>
+        <v>0.08</v>
       </c>
       <c r="L6" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -1598,13 +1598,13 @@
         <v>93</v>
       </c>
       <c r="D7" t="n">
-        <v>3.22</v>
+        <v>2.83</v>
       </c>
       <c r="E7" t="n">
-        <v>2.46</v>
+        <v>1.63</v>
       </c>
       <c r="F7" t="n">
-        <v>1.58</v>
+        <v>0.26</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1616,16 +1616,16 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>2.09</v>
+        <v>1.32</v>
       </c>
       <c r="K7" t="n">
-        <v>0.76</v>
+        <v>0.2</v>
       </c>
       <c r="L7" t="n">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>0.19</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
@@ -1645,34 +1645,34 @@
         <v>94</v>
       </c>
       <c r="D8" t="n">
-        <v>1.38</v>
+        <v>0.73</v>
       </c>
       <c r="E8" t="n">
-        <v>0.22</v>
+        <v>0.03</v>
       </c>
       <c r="F8" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.7</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="K8" t="n">
         <v>0.01</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.26</v>
-      </c>
       <c r="L8" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
@@ -1692,16 +1692,16 @@
         <v>95</v>
       </c>
       <c r="D9" t="n">
-        <v>2.38</v>
+        <v>1.53</v>
       </c>
       <c r="E9" t="n">
-        <v>1.11</v>
+        <v>0.39</v>
       </c>
       <c r="F9" t="n">
-        <v>0.4</v>
+        <v>0.03</v>
       </c>
       <c r="G9" t="n">
-        <v>0.84</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1710,16 +1710,16 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>1.72</v>
+        <v>0.91</v>
       </c>
       <c r="K9" t="n">
-        <v>0.48</v>
+        <v>0.07</v>
       </c>
       <c r="L9" t="n">
-        <v>0.07</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0.26</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -1748,7 +1748,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1757,10 +1757,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>1.58</v>
+        <v>0.44</v>
       </c>
       <c r="K10" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1804,7 +1804,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>1.02</v>
+        <v>0.4</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1880,16 +1880,16 @@
         <v>100</v>
       </c>
       <c r="D13" t="n">
-        <v>2.03</v>
+        <v>1.59</v>
       </c>
       <c r="E13" t="n">
-        <v>1.2</v>
+        <v>0.71</v>
       </c>
       <c r="F13" t="n">
-        <v>0.67</v>
+        <v>0.25</v>
       </c>
       <c r="G13" t="n">
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1898,16 +1898,16 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>1.9</v>
+        <v>1.05</v>
       </c>
       <c r="K13" t="n">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="L13" t="n">
-        <v>0.1</v>
+        <v>0.02</v>
       </c>
       <c r="M13" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -1945,16 +1945,16 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>1.99</v>
+        <v>0.79</v>
       </c>
       <c r="K14" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -1992,16 +1992,16 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>1.34</v>
+        <v>0.63</v>
       </c>
       <c r="K15" t="n">
-        <v>0.23</v>
+        <v>0.01</v>
       </c>
       <c r="L15" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -2039,16 +2039,16 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>2.42</v>
+        <v>1.84</v>
       </c>
       <c r="K16" t="n">
-        <v>1.39</v>
+        <v>0.75</v>
       </c>
       <c r="L16" t="n">
-        <v>0.7</v>
+        <v>0.21</v>
       </c>
       <c r="M16" t="n">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -2086,16 +2086,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>2.1</v>
+        <v>1.3</v>
       </c>
       <c r="K17" t="n">
-        <v>0.79</v>
+        <v>0.23</v>
       </c>
       <c r="L17" t="n">
-        <v>0.26</v>
+        <v>0.02</v>
       </c>
       <c r="M17" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -2133,16 +2133,16 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>1.68</v>
+        <v>0.53</v>
       </c>
       <c r="K18" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -2180,16 +2180,16 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>1.11</v>
+        <v>0.4</v>
       </c>
       <c r="K19" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -2209,16 +2209,16 @@
         <v>109</v>
       </c>
       <c r="D20" t="n">
-        <v>2.43</v>
+        <v>1.93</v>
       </c>
       <c r="E20" t="n">
-        <v>1.55</v>
+        <v>0.77</v>
       </c>
       <c r="F20" t="n">
-        <v>0.79</v>
+        <v>0.23</v>
       </c>
       <c r="G20" t="n">
-        <v>0.45</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2227,16 +2227,16 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>1.78</v>
+        <v>1.18</v>
       </c>
       <c r="K20" t="n">
-        <v>0.73</v>
+        <v>0.21</v>
       </c>
       <c r="L20" t="n">
-        <v>0.19</v>
+        <v>0.02</v>
       </c>
       <c r="M20" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -2274,16 +2274,16 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>1.93</v>
+        <v>0.98</v>
       </c>
       <c r="K21" t="n">
-        <v>0.45</v>
+        <v>0.03</v>
       </c>
       <c r="L21" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0.54</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -2303,16 +2303,16 @@
         <v>111</v>
       </c>
       <c r="D22" t="n">
-        <v>2.39</v>
+        <v>1.64</v>
       </c>
       <c r="E22" t="n">
-        <v>1.19</v>
+        <v>0.1</v>
       </c>
       <c r="F22" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.04</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2321,16 +2321,16 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>1.94</v>
+        <v>1.13</v>
       </c>
       <c r="K22" t="n">
-        <v>0.57</v>
+        <v>0.09</v>
       </c>
       <c r="L22" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -2350,13 +2350,13 @@
         <v>112</v>
       </c>
       <c r="D23" t="n">
-        <v>2.95</v>
+        <v>2.18</v>
       </c>
       <c r="E23" t="n">
-        <v>1.76</v>
+        <v>0.34</v>
       </c>
       <c r="F23" t="n">
-        <v>0.52</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -2368,16 +2368,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>2.14</v>
+        <v>1.34</v>
       </c>
       <c r="K23" t="n">
-        <v>0.8</v>
+        <v>0.09</v>
       </c>
       <c r="L23" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0.37</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -2397,16 +2397,16 @@
         <v>113</v>
       </c>
       <c r="D24" t="n">
-        <v>2.76</v>
+        <v>2.12</v>
       </c>
       <c r="E24" t="n">
-        <v>1.51</v>
+        <v>0.58</v>
       </c>
       <c r="F24" t="n">
-        <v>0.45</v>
+        <v>0.04</v>
       </c>
       <c r="G24" t="n">
-        <v>0.97</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2415,16 +2415,16 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>2</v>
+        <v>1.06</v>
       </c>
       <c r="K24" t="n">
-        <v>0.53</v>
+        <v>0.07</v>
       </c>
       <c r="L24" t="n">
-        <v>0.07</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -2444,16 +2444,16 @@
         <v>114</v>
       </c>
       <c r="D25" t="n">
-        <v>2.45</v>
+        <v>1.74</v>
       </c>
       <c r="E25" t="n">
-        <v>1.27</v>
+        <v>0.3</v>
       </c>
       <c r="F25" t="n">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.77</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2462,16 +2462,16 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>1.85</v>
+        <v>1.03</v>
       </c>
       <c r="K25" t="n">
-        <v>0.52</v>
+        <v>0.06</v>
       </c>
       <c r="L25" t="n">
-        <v>0.08</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>0.42</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -2491,37 +2491,37 @@
         <v>115</v>
       </c>
       <c r="D26" t="n">
-        <v>2.62</v>
+        <v>1.42</v>
       </c>
       <c r="E26" t="n">
-        <v>1.51</v>
+        <v>0.2</v>
       </c>
       <c r="F26" t="n">
-        <v>0.64</v>
+        <v>0.02</v>
       </c>
       <c r="G26" t="n">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0.18</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>2.77</v>
+        <v>1.55</v>
       </c>
       <c r="K26" t="n">
-        <v>1.56</v>
+        <v>0.42</v>
       </c>
       <c r="L26" t="n">
-        <v>0.77</v>
+        <v>0.12</v>
       </c>
       <c r="M26" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -2538,16 +2538,16 @@
         <v>116</v>
       </c>
       <c r="D27" t="n">
-        <v>2.24</v>
+        <v>1.57</v>
       </c>
       <c r="E27" t="n">
-        <v>0.9</v>
+        <v>0.28</v>
       </c>
       <c r="F27" t="n">
-        <v>0.25</v>
+        <v>0.03</v>
       </c>
       <c r="G27" t="n">
-        <v>0.61</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2556,16 +2556,16 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>1.65</v>
+        <v>0.96</v>
       </c>
       <c r="K27" t="n">
-        <v>0.52</v>
+        <v>0.1</v>
       </c>
       <c r="L27" t="n">
-        <v>0.11</v>
+        <v>0.01</v>
       </c>
       <c r="M27" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -2585,13 +2585,13 @@
         <v>117</v>
       </c>
       <c r="D28" t="n">
-        <v>3.1</v>
+        <v>2.58</v>
       </c>
       <c r="E28" t="n">
-        <v>1.61</v>
+        <v>0.58</v>
       </c>
       <c r="F28" t="n">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2603,16 +2603,16 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>2.16</v>
+        <v>1.53</v>
       </c>
       <c r="K28" t="n">
-        <v>0.86</v>
+        <v>0.23</v>
       </c>
       <c r="L28" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
@@ -2632,34 +2632,34 @@
         <v>118</v>
       </c>
       <c r="D29" t="n">
-        <v>2.63</v>
+        <v>1.98</v>
       </c>
       <c r="E29" t="n">
-        <v>1.58</v>
+        <v>0.64</v>
       </c>
       <c r="F29" t="n">
-        <v>0.68</v>
+        <v>0.17</v>
       </c>
       <c r="G29" t="n">
-        <v>1.52</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0.29</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>1.87</v>
+        <v>1.13</v>
       </c>
       <c r="K29" t="n">
-        <v>0.62</v>
+        <v>0.15</v>
       </c>
       <c r="L29" t="n">
-        <v>0.14</v>
+        <v>0.05</v>
       </c>
       <c r="M29" t="n">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -2679,16 +2679,16 @@
         <v>119</v>
       </c>
       <c r="D30" t="n">
-        <v>2.45</v>
+        <v>1.97</v>
       </c>
       <c r="E30" t="n">
-        <v>1.55</v>
+        <v>0.69</v>
       </c>
       <c r="F30" t="n">
-        <v>0.63</v>
+        <v>0.02</v>
       </c>
       <c r="G30" t="n">
-        <v>0.17</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2697,16 +2697,16 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>1.84</v>
+        <v>1.27</v>
       </c>
       <c r="K30" t="n">
-        <v>0.83</v>
+        <v>0.25</v>
       </c>
       <c r="L30" t="n">
-        <v>0.21</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0.07</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -2726,13 +2726,13 @@
         <v>121</v>
       </c>
       <c r="D31" t="n">
-        <v>2.91</v>
+        <v>2.57</v>
       </c>
       <c r="E31" t="n">
-        <v>2.01</v>
+        <v>1.29</v>
       </c>
       <c r="F31" t="n">
-        <v>1.02</v>
+        <v>0.41</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -2744,16 +2744,16 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>2.22</v>
+        <v>1.4</v>
       </c>
       <c r="K31" t="n">
-        <v>0.77</v>
+        <v>0.17</v>
       </c>
       <c r="L31" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
@@ -2773,13 +2773,13 @@
         <v>122</v>
       </c>
       <c r="D32" t="n">
-        <v>2.64</v>
+        <v>2.37</v>
       </c>
       <c r="E32" t="n">
-        <v>1.87</v>
+        <v>1.3</v>
       </c>
       <c r="F32" t="n">
-        <v>1.03</v>
+        <v>0.43</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -2791,16 +2791,16 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>1.78</v>
+        <v>1.36</v>
       </c>
       <c r="K32" t="n">
-        <v>1</v>
+        <v>0.52</v>
       </c>
       <c r="L32" t="n">
-        <v>0.49</v>
+        <v>0.14</v>
       </c>
       <c r="M32" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -2838,16 +2838,16 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>2.56</v>
+        <v>1.69</v>
       </c>
       <c r="K33" t="n">
-        <v>1.23</v>
+        <v>0.59</v>
       </c>
       <c r="L33" t="n">
-        <v>0.6</v>
+        <v>0.12</v>
       </c>
       <c r="M33" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -2867,13 +2867,13 @@
         <v>124</v>
       </c>
       <c r="D34" t="n">
-        <v>3.25</v>
+        <v>2.94</v>
       </c>
       <c r="E34" t="n">
-        <v>2.79</v>
+        <v>2.12</v>
       </c>
       <c r="F34" t="n">
-        <v>2.25</v>
+        <v>1.25</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -2885,16 +2885,16 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>2.04</v>
+        <v>1.56</v>
       </c>
       <c r="K34" t="n">
-        <v>1.17</v>
+        <v>0.6</v>
       </c>
       <c r="L34" t="n">
-        <v>0.57</v>
+        <v>0.17</v>
       </c>
       <c r="M34" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
@@ -2932,16 +2932,16 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>1.79</v>
+        <v>1.35</v>
       </c>
       <c r="K35" t="n">
-        <v>0.87</v>
+        <v>0.47</v>
       </c>
       <c r="L35" t="n">
-        <v>0.38</v>
+        <v>0.13</v>
       </c>
       <c r="M35" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -2961,16 +2961,16 @@
         <v>127</v>
       </c>
       <c r="D36" t="n">
-        <v>2.75</v>
+        <v>2.37</v>
       </c>
       <c r="E36" t="n">
-        <v>1.79</v>
+        <v>1.03</v>
       </c>
       <c r="F36" t="n">
-        <v>0.81</v>
+        <v>0.23</v>
       </c>
       <c r="G36" t="n">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -2979,16 +2979,16 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>1.9</v>
+        <v>1.31</v>
       </c>
       <c r="K36" t="n">
-        <v>0.77</v>
+        <v>0.23</v>
       </c>
       <c r="L36" t="n">
-        <v>0.18</v>
+        <v>0.01</v>
       </c>
       <c r="M36" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -3008,16 +3008,16 @@
         <v>128</v>
       </c>
       <c r="D37" t="n">
-        <v>2.88</v>
+        <v>2.38</v>
       </c>
       <c r="E37" t="n">
-        <v>1.97</v>
+        <v>1.07</v>
       </c>
       <c r="F37" t="n">
-        <v>1.1</v>
+        <v>0.25</v>
       </c>
       <c r="G37" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3026,16 +3026,16 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>2.17</v>
+        <v>1.58</v>
       </c>
       <c r="K37" t="n">
-        <v>1.19</v>
+        <v>0.5</v>
       </c>
       <c r="L37" t="n">
-        <v>0.55</v>
+        <v>0.1</v>
       </c>
       <c r="M37" t="n">
-        <v>0.13</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
@@ -3055,16 +3055,16 @@
         <v>129</v>
       </c>
       <c r="D38" t="n">
-        <v>3.07</v>
+        <v>2.41</v>
       </c>
       <c r="E38" t="n">
-        <v>1.72</v>
+        <v>0.56</v>
       </c>
       <c r="F38" t="n">
-        <v>0.48</v>
+        <v>0.01</v>
       </c>
       <c r="G38" t="n">
-        <v>0.22</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3073,16 +3073,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>2.39</v>
+        <v>1.71</v>
       </c>
       <c r="K38" t="n">
-        <v>1.15</v>
+        <v>0.53</v>
       </c>
       <c r="L38" t="n">
-        <v>0.48</v>
+        <v>0.15</v>
       </c>
       <c r="M38" t="n">
-        <v>0.23</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -3120,16 +3120,16 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>1.85</v>
+        <v>1.04</v>
       </c>
       <c r="K39" t="n">
-        <v>0.6</v>
+        <v>0.16</v>
       </c>
       <c r="L39" t="n">
-        <v>0.18</v>
+        <v>0.01</v>
       </c>
       <c r="M39" t="n">
-        <v>0.07</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -3167,16 +3167,16 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0.99</v>
+        <v>0.27</v>
       </c>
       <c r="K40" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
@@ -3214,16 +3214,16 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0.75</v>
+        <v>0.24</v>
       </c>
       <c r="K41" t="n">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -3252,7 +3252,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -3261,16 +3261,16 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>1.57</v>
+        <v>0.9</v>
       </c>
       <c r="K42" t="n">
-        <v>0.45</v>
+        <v>0.13</v>
       </c>
       <c r="L42" t="n">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -3308,7 +3308,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>2.87</v>
+        <v>0.44</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -3355,7 +3355,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0.61</v>
+        <v>0.26</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -3402,13 +3402,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0.56</v>
+        <v>0.19</v>
       </c>
       <c r="K45" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -3525,10 +3525,10 @@
         <v>142</v>
       </c>
       <c r="D48" t="n">
-        <v>3.29</v>
+        <v>2.35</v>
       </c>
       <c r="E48" t="n">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="F48" t="n">
         <v>0</v>
@@ -3543,16 +3543,16 @@
         <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>2.5</v>
+        <v>1.02</v>
       </c>
       <c r="K48" t="n">
-        <v>0.48</v>
+        <v>0.02</v>
       </c>
       <c r="L48" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="M48" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="N48" t="n">
         <v>0</v>
@@ -3590,7 +3590,7 @@
         <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>1.02</v>
+        <v>0.01</v>
       </c>
       <c r="K49" t="n">
         <v>0</v>
@@ -3619,10 +3619,10 @@
         <v>144</v>
       </c>
       <c r="D50" t="n">
-        <v>2.18</v>
+        <v>1.33</v>
       </c>
       <c r="E50" t="n">
-        <v>0.79</v>
+        <v>0</v>
       </c>
       <c r="F50" t="n">
         <v>0</v>
@@ -3637,16 +3637,16 @@
         <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>2.63</v>
+        <v>1.39</v>
       </c>
       <c r="K50" t="n">
-        <v>0.88</v>
+        <v>0.12</v>
       </c>
       <c r="L50" t="n">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="M50" t="n">
-        <v>0.09</v>
+        <v>0</v>
       </c>
       <c r="N50" t="n">
         <v>0</v>
@@ -3666,13 +3666,13 @@
         <v>145</v>
       </c>
       <c r="D51" t="n">
-        <v>5.14</v>
+        <v>4.51</v>
       </c>
       <c r="E51" t="n">
-        <v>4.63</v>
+        <v>3.28</v>
       </c>
       <c r="F51" t="n">
-        <v>4.03</v>
+        <v>1.92</v>
       </c>
       <c r="G51" t="n">
         <v>0</v>
@@ -3684,16 +3684,16 @@
         <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>2.56</v>
+        <v>1.51</v>
       </c>
       <c r="K51" t="n">
-        <v>1.5</v>
+        <v>0.4</v>
       </c>
       <c r="L51" t="n">
-        <v>0.83</v>
+        <v>0.09</v>
       </c>
       <c r="M51" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="N51" t="n">
         <v>0</v>
@@ -3731,16 +3731,16 @@
         <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>2.14</v>
+        <v>0.89</v>
       </c>
       <c r="K52" t="n">
-        <v>0.39</v>
+        <v>0.01</v>
       </c>
       <c r="L52" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="M52" t="n">
-        <v>0.05</v>
+        <v>0</v>
       </c>
       <c r="N52" t="n">
         <v>0</v>
@@ -3778,7 +3778,7 @@
         <v>0</v>
       </c>
       <c r="J53" t="n">
-        <v>2.68</v>
+        <v>0.52</v>
       </c>
       <c r="K53" t="n">
         <v>0</v>
